--- a/classTable_2022_first.xlsx
+++ b/classTable_2022_first.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sorakojima/uni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BCE7BE-248A-034F-BB70-59D9CDDA4442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BC6561-523D-1B4F-993E-570FDB633068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23920" yWindow="2860" windowWidth="27420" windowHeight="24140" xr2:uid="{437DC42F-A4F2-0249-A495-FDA82C41EABE}"/>
+    <workbookView xWindow="1380" yWindow="500" windowWidth="27420" windowHeight="17500" xr2:uid="{437DC42F-A4F2-0249-A495-FDA82C41EABE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -722,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,6 +824,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1142,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C83C130-E66E-1E47-A4F5-52E74DB4CC90}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1185,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="21">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1197,7 +1203,7 @@
       <c r="E3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="34" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1211,7 +1217,7 @@
       <c r="E4" s="20"/>
       <c r="F4" s="21"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" ht="21">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1221,10 +1227,10 @@
       <c r="C5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="35" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="21"/>
@@ -1488,6 +1494,9 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{3177BC2C-C69B-3143-8C97-B9F21873C4A3}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{DBD6B1FF-33FB-B445-8BB6-783F7F627397}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{99359D10-79EF-BE47-A939-00A24E311A27}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{8DD0F9FC-637D-1F46-B89F-5D13641788CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/classTable_2022_first.xlsx
+++ b/classTable_2022_first.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sorakojima/uni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BC6561-523D-1B4F-993E-570FDB633068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E661D204-34F1-EC44-97A7-D94A874D3A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="500" windowWidth="27420" windowHeight="17500" xr2:uid="{437DC42F-A4F2-0249-A495-FDA82C41EABE}"/>
+    <workbookView minimized="1" xWindow="1380" yWindow="500" windowWidth="25400" windowHeight="17500" xr2:uid="{437DC42F-A4F2-0249-A495-FDA82C41EABE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -777,59 +777,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1148,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C83C130-E66E-1E47-A4F5-52E74DB4CC90}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1195,15 +1195,15 @@
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="23" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1211,45 +1211,45 @@
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:12" ht="21">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:12" ht="39" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="22"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -1264,17 +1264,17 @@
       <c r="A8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -1284,17 +1284,17 @@
       <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="23" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="28"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="15"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
@@ -1304,17 +1304,17 @@
       <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="23" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="1"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -1323,17 +1323,17 @@
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="23" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="28"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="1"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -1342,119 +1342,119 @@
       <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="23" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="28"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="174" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="23" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="28"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="181" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="23" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="28"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="145" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="31"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:12" ht="68" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="23" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="28"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="175" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="23" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="28"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="89" customHeight="1" thickBot="1">
       <c r="A18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="25" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="33"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="21" thickTop="1">
@@ -1467,29 +1467,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -1498,6 +1498,7 @@
     <hyperlink ref="D5" r:id="rId3" xr:uid="{99359D10-79EF-BE47-A939-00A24E311A27}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{8DD0F9FC-637D-1F46-B89F-5D13641788CF}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>